--- a/plants_link_25 (1) (1)(auto recovery).xlsx
+++ b/plants_link_25 (1) (1)(auto recovery).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48A0E1D-6264-49D0-85BD-04926E4E2047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECE62CE-69D2-41DD-8FF6-3DC280E21CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'day 2'!$A$1:$N$138</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2556,7 +2555,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="50">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -2588,12 +2601,237 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2635,69 +2873,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2734,67 +2912,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2827,140 +2952,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
@@ -3014,12 +3005,12 @@
     <tableColumn id="1" xr3:uid="{26D1F4C9-1023-43B6-B68A-16EF6BCD1A65}" uniqueName="1" name="web-scraper-order" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{38AE6A63-3431-4DA1-92D5-F58E5E1D4CA8}" uniqueName="2" name="plant_data" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{2F7E4382-F4FA-4332-8C66-D30AFAC02A74}" uniqueName="3" name="NAME" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{19D3C1C3-1B3E-4ADF-8B2A-44624F464A2C}" uniqueName="4" name="ORIGINAL_PRICE" queryTableFieldId="4" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{F3D30C0F-6740-4DCC-8A64-21F2ECD8DB57}" uniqueName="5" name="DISCOUNT PERCENTAGE" queryTableFieldId="5" dataDxfId="44"/>
-    <tableColumn id="14" xr3:uid="{3E43C63C-9A53-48F6-8405-E33DF97E78F8}" uniqueName="14" name="DISCOUNT PRICE" queryTableFieldId="14" dataDxfId="28">
+    <tableColumn id="4" xr3:uid="{19D3C1C3-1B3E-4ADF-8B2A-44624F464A2C}" uniqueName="4" name="ORIGINAL_PRICE" queryTableFieldId="4" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{F3D30C0F-6740-4DCC-8A64-21F2ECD8DB57}" uniqueName="5" name="DISCOUNT PERCENTAGE" queryTableFieldId="5" dataDxfId="48"/>
+    <tableColumn id="14" xr3:uid="{3E43C63C-9A53-48F6-8405-E33DF97E78F8}" uniqueName="14" name="DISCOUNT PRICE" queryTableFieldId="14" dataDxfId="47">
       <calculatedColumnFormula>tab_1[[#This Row],[ORIGINAL_PRICE]]*tab_1[[#This Row],[DISCOUNT PERCENTAGE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E2AD4D67-FC76-470B-8DDB-829906DF97AD}" uniqueName="6" name="SPECIAL_PRICE" queryTableFieldId="6" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{E2AD4D67-FC76-470B-8DDB-829906DF97AD}" uniqueName="6" name="SPECIAL_PRICE" queryTableFieldId="6" dataDxfId="46"/>
     <tableColumn id="7" xr3:uid="{CA80DADB-9D46-466B-A83C-66E532FA27BF}" uniqueName="7" name="PANT SIZE" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{DBE1974F-04B8-41DF-A838-3B0A708C3EB2}" uniqueName="8" name="TYPE" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{C88B7FA3-3CF3-4EF4-8FE3-3E9C1A58CD61}" uniqueName="9" name="RETURN POLICY" queryTableFieldId="9"/>
@@ -3356,7 +3347,7 @@
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="59" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2:M138"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9591,12 +9582,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D2:D138">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="greaterThan">
       <formula>800</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F138">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="E2:E138">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9606,20 +9597,41 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F138">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="lessThan">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F138">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="22" priority="15">
       <formula>E2&gt;25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G138">
-    <cfRule type="expression" priority="11">
-      <formula>$E$2:$E$138&gt;25</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9631,42 +9643,43 @@
         </ext>
       </extLst>
     </cfRule>
+    <cfRule type="expression" priority="17">
+      <formula>$E$2:$E$138&gt;25</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I138">
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Flower">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Herb">
+      <formula>NOT(ISERROR(SEARCH("Herb",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="Air purifier plant">
+      <formula>NOT(ISERROR(SEARCH("Air purifier plant",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="Flower">
       <formula>NOT(ISERROR(SEARCH("Flower",I2)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="8" priority="8" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="4" priority="14" timePeriod="yesterday">
       <formula>FLOOR(I2,1)=TODAY()-1</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Foliage">
+      <formula>NOT(ISERROR(SEARCH("Foliage",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I95:I138">
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="Bamboo">
+      <formula>NOT(ISERROR(SEARCH("Bamboo",I95)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="Succulent">
+      <formula>NOT(ISERROR(SEARCH("Succulent",I95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M138">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E138">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F138">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
+  <conditionalFormatting sqref="I3:I138">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Shrub">
+      <formula>NOT(ISERROR(SEARCH("Shrub",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9690,7 +9703,7 @@
           <xm:sqref>G2:G138</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{1F64A348-52BB-4D03-930A-17AC76CF67CD}">
+          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{1F64A348-52BB-4D03-930A-17AC76CF67CD}">
             <xm:f>NOT(ISERROR(SEARCH($P$7,I2)))</xm:f>
             <xm:f>$P$7</xm:f>
             <x14:dxf>
